--- a/Data For Each Figure.xlsx
+++ b/Data For Each Figure.xlsx
@@ -8,23 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofer/Documents/GitHub/Balanced-Imitation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0D28242-68A1-9045-BCD4-556638D5CDDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E60217-FAFC-0F40-954C-EDCFA8B5D353}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" activeTab="7" xr2:uid="{FE5725AA-1F5C-CF44-BA5D-69B4D40061C7}"/>
+    <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{FE5725AA-1F5C-CF44-BA5D-69B4D40061C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1 data" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1B data" sheetId="2" r:id="rId2"/>
-    <sheet name="Figure 2 data" sheetId="3" r:id="rId3"/>
-    <sheet name="Figure 3 data" sheetId="4" r:id="rId4"/>
-    <sheet name="Figure 4 data" sheetId="5" r:id="rId5"/>
-    <sheet name="Figure 5 data" sheetId="6" r:id="rId6"/>
-    <sheet name="Figure 6 data" sheetId="7" r:id="rId7"/>
-    <sheet name="Figure 7 data" sheetId="8" r:id="rId8"/>
+    <sheet name="Figure 2 data" sheetId="3" r:id="rId2"/>
+    <sheet name="Figure 3 data" sheetId="4" r:id="rId3"/>
+    <sheet name="Figure 4 data" sheetId="5" r:id="rId4"/>
+    <sheet name="Figure 5 data" sheetId="6" r:id="rId5"/>
+    <sheet name="Figure 6 data" sheetId="7" r:id="rId6"/>
+    <sheet name="Figure 7 data" sheetId="8" r:id="rId7"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3148" uniqueCount="323">
   <si>
     <t>Tutor ID</t>
   </si>
@@ -15818,791 +15817,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29CE7E1-A701-004D-A0A5-1E2951E54C4F}">
-  <dimension ref="A1:D73"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>47.25</v>
-      </c>
-      <c r="C2">
-        <f>AVERAGE(B2:B4)</f>
-        <v>48.583333333333336</v>
-      </c>
-      <c r="D2">
-        <f>_xlfn.STDEV.S(B2:B4)/C2</f>
-        <v>7.099211693507676E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5">
-        <v>74</v>
-      </c>
-      <c r="C5">
-        <f>AVERAGE(B5:B8)</f>
-        <v>73</v>
-      </c>
-      <c r="D5">
-        <f>_xlfn.STDEV.S(B5:B8)/C5</f>
-        <v>6.5278440436053867E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6">
-        <v>78.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7">
-        <v>67.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>58</v>
-      </c>
-      <c r="C9">
-        <f>AVERAGE(B9:B10)</f>
-        <v>52.375</v>
-      </c>
-      <c r="D9">
-        <f>_xlfn.STDEV.S(B9:B10)/C9</f>
-        <v>0.15188451147205079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>46.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11">
-        <v>93</v>
-      </c>
-      <c r="C11">
-        <f>AVERAGE(B11:B12)</f>
-        <v>79.25</v>
-      </c>
-      <c r="D11">
-        <f>_xlfn.STDEV.S(B11:B12)/C11</f>
-        <v>0.24536828369249283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13">
-        <v>73.5</v>
-      </c>
-      <c r="C13">
-        <f>AVERAGE(B13:B15)</f>
-        <v>78.5</v>
-      </c>
-      <c r="D13">
-        <f>_xlfn.STDEV.S(B13:B15)/C13</f>
-        <v>0.10485399766340338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16">
-        <v>88.5</v>
-      </c>
-      <c r="C16">
-        <f>AVERAGE(B16:B17)</f>
-        <v>90.25</v>
-      </c>
-      <c r="D16">
-        <f>_xlfn.STDEV.S(B16:B17)/C16</f>
-        <v>2.7422423647123727E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18">
-        <v>78.5</v>
-      </c>
-      <c r="C18">
-        <f>AVERAGE(B18:B19)</f>
-        <v>79.25</v>
-      </c>
-      <c r="D18">
-        <f>_xlfn.STDEV.S(B18:B19)/C18</f>
-        <v>1.3383724565045062E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20">
-        <v>82</v>
-      </c>
-      <c r="C20">
-        <f>AVERAGE(B20:B21)</f>
-        <v>72.5</v>
-      </c>
-      <c r="D20">
-        <f>_xlfn.STDEV.S(B20:B21)/C20</f>
-        <v>0.18531074265578487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <v>88</v>
-      </c>
-      <c r="C22">
-        <f>AVERAGE(B22:B25)</f>
-        <v>88.65625</v>
-      </c>
-      <c r="D22">
-        <f>_xlfn.STDEV.S(B22:B25)/C22</f>
-        <v>6.2180062539380798E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23">
-        <v>82.625</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26">
-        <v>42.75</v>
-      </c>
-      <c r="C26">
-        <f>AVERAGE(B26:B27)</f>
-        <v>43.5</v>
-      </c>
-      <c r="D26">
-        <f>_xlfn.STDEV.S(B26:B27)/C26</f>
-        <v>2.4382992454708534E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27">
-        <v>44.25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28">
-        <v>71.666666666666671</v>
-      </c>
-      <c r="C28">
-        <f>AVERAGE(B28:B30)</f>
-        <v>63.847222222222229</v>
-      </c>
-      <c r="D28">
-        <f>_xlfn.STDEV.S(B28:B30)/C28</f>
-        <v>0.11087343853814424</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29">
-        <v>57.875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31">
-        <v>71</v>
-      </c>
-      <c r="C31">
-        <f>AVERAGE(B31:B33)</f>
-        <v>52.55555555555555</v>
-      </c>
-      <c r="D31">
-        <f>_xlfn.STDEV.S(B31:B33)/C31</f>
-        <v>0.31183753179691065</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32">
-        <v>39.666666666666664</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B33">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34">
-        <v>86</v>
-      </c>
-      <c r="C34">
-        <f>AVERAGE(B34:B35)</f>
-        <v>75.75</v>
-      </c>
-      <c r="D34">
-        <f>_xlfn.STDEV.S(B34:B35)/C34</f>
-        <v>0.19136223121220097</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35">
-        <v>65.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36">
-        <v>70</v>
-      </c>
-      <c r="C36">
-        <f>AVERAGE(B36:B37)</f>
-        <v>80.5</v>
-      </c>
-      <c r="D36">
-        <f>_xlfn.STDEV.S(B36:B37)/C36</f>
-        <v>0.18446263857040368</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38">
-        <v>69</v>
-      </c>
-      <c r="C38">
-        <f>AVERAGE(B38:B39)</f>
-        <v>70.25</v>
-      </c>
-      <c r="D38">
-        <f>_xlfn.STDEV.S(B38:B39)/C38</f>
-        <v>2.516394239098034E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B39">
-        <v>71.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40">
-        <v>68.666666666666671</v>
-      </c>
-      <c r="C40">
-        <f>AVERAGE(B40:B42)</f>
-        <v>61.94444444444445</v>
-      </c>
-      <c r="D40">
-        <f>_xlfn.STDEV.S(B40:B42)/C40</f>
-        <v>0.37649258549775805</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41">
-        <v>81.166666666666671</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43">
-        <v>68</v>
-      </c>
-      <c r="C43">
-        <f>AVERAGE(B43:B44)</f>
-        <v>71</v>
-      </c>
-      <c r="D43">
-        <f>_xlfn.STDEV.S(B43:B44)/C43</f>
-        <v>5.9755502635482884E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45">
-        <v>44.666666666666664</v>
-      </c>
-      <c r="C45">
-        <f>AVERAGE(B45:B46)</f>
-        <v>51.333333333333329</v>
-      </c>
-      <c r="D45">
-        <f>_xlfn.STDEV.S(B45:B46)/C45</f>
-        <v>0.18366409900949454</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47">
-        <v>69</v>
-      </c>
-      <c r="C47">
-        <f>AVERAGE(B47:B48)</f>
-        <v>71</v>
-      </c>
-      <c r="D47">
-        <f>_xlfn.STDEV.S(B47:B48)/C47</f>
-        <v>3.9837001756988594E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49">
-        <v>45</v>
-      </c>
-      <c r="C49">
-        <f>AVERAGE(B49:B52)</f>
-        <v>53.1875</v>
-      </c>
-      <c r="D49">
-        <f>_xlfn.STDEV.S(B49:B52)/C49</f>
-        <v>0.23298375710764693</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50">
-        <v>44.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52">
-        <v>52.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53">
-        <v>67.5</v>
-      </c>
-      <c r="C53">
-        <f>AVERAGE(B53:B55)</f>
-        <v>59.5</v>
-      </c>
-      <c r="D53">
-        <f>_xlfn.STDEV.S(B53:B55)/C53</f>
-        <v>0.17786563435728342</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54">
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55">
-        <v>47.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56">
-        <v>89</v>
-      </c>
-      <c r="C56">
-        <f>AVERAGE(B56:B57)</f>
-        <v>82</v>
-      </c>
-      <c r="D56">
-        <f>_xlfn.STDEV.S(B56:B57)/C56</f>
-        <v>0.12072554800745933</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58">
-        <v>46.25</v>
-      </c>
-      <c r="C58">
-        <f>AVERAGE(B58:B61)</f>
-        <v>58.75</v>
-      </c>
-      <c r="D58">
-        <f>_xlfn.STDEV.S(B58:B61)/C58</f>
-        <v>0.18848710289659662</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B59">
-        <v>59.75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62">
-        <v>96</v>
-      </c>
-      <c r="C62">
-        <f>AVERAGE(B62:B63)</f>
-        <v>88.5</v>
-      </c>
-      <c r="D62">
-        <f>_xlfn.STDEV.S(B62:B63)/C62</f>
-        <v>0.11984860698077077</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
-        <v>153</v>
-      </c>
-      <c r="B63">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64">
-        <v>51.5</v>
-      </c>
-      <c r="C64">
-        <f>AVERAGE(B64:B69)</f>
-        <v>62.333333333333336</v>
-      </c>
-      <c r="D64">
-        <f>_xlfn.STDEV.S(B64:B69)/C64</f>
-        <v>0.28080213394545661</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>20</v>
-      </c>
-      <c r="B67">
-        <v>46.5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>20</v>
-      </c>
-      <c r="B69">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="B73" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461CB9B2-7D92-3040-B540-6A575155CABF}">
   <dimension ref="A1:O161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -24335,7 +23553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FC41D3-8EE1-814D-961D-5FD00BE3FB85}">
   <dimension ref="A1:N98"/>
   <sheetViews>
@@ -28026,7 +27244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EF9DE9-9D5B-4146-AC2B-FF9B69F3356D}">
   <dimension ref="A2:H162"/>
   <sheetViews>
@@ -32235,7 +31453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A90A917-A5C7-C84B-A2A7-27AAD0CAE953}">
   <dimension ref="A1:O161"/>
   <sheetViews>
@@ -39972,7 +39190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5D2395-AAA8-A840-ACF0-BF2433EE1399}">
   <dimension ref="A1:CH162"/>
   <sheetViews>
@@ -58028,11 +57246,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0F0A1E-5693-4447-89E1-A4DEA3C16255}">
   <dimension ref="A1:AJ1711"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
